--- a/Output/Classifier Evaluation/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
+++ b/Output/Classifier Evaluation/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2725796699523926</v>
+        <v>0.344409704208374</v>
       </c>
       <c r="F2" t="n">
         <v>0.1253776550292969</v>
@@ -527,7 +527,7 @@
         <v>718.238401889801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2725796699523926</v>
+        <v>0.344409704208374</v>
       </c>
       <c r="I2" t="n">
         <v>0.1253776550292969</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2802295684814453</v>
+        <v>0.3544647693634033</v>
       </c>
       <c r="F3" t="n">
         <v>0.1261296272277832</v>
@@ -572,7 +572,7 @@
         <v>718.8524346351624</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007649898529052734</v>
+        <v>0.0100550651550293</v>
       </c>
       <c r="I3" t="n">
         <v>0.0007519721984863281</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2635025978088379</v>
+        <v>0.3892474174499512</v>
       </c>
       <c r="F4" t="n">
         <v>0.1073622703552246</v>
@@ -617,7 +617,7 @@
         <v>826.3660137653351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2635025978088379</v>
+        <v>0.3892474174499512</v>
       </c>
       <c r="I4" t="n">
         <v>0.1073622703552246</v>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.486579179763794</v>
+        <v>1.41332745552063</v>
       </c>
       <c r="F5" t="n">
         <v>0.5190372467041016</v>
@@ -662,7 +662,7 @@
         <v>3112.256553888321</v>
       </c>
       <c r="H5" t="n">
-        <v>1.486579179763794</v>
+        <v>1.41332745552063</v>
       </c>
       <c r="I5" t="n">
         <v>0.5190372467041016</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3776009082794189</v>
+        <v>0.4538910388946533</v>
       </c>
       <c r="F6" t="n">
         <v>0.1002602577209473</v>
@@ -707,7 +707,7 @@
         <v>1812.390864849091</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3776009082794189</v>
+        <v>0.4538910388946533</v>
       </c>
       <c r="I6" t="n">
         <v>0.1002602577209473</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.363399744033813</v>
+        <v>4.796384572982788</v>
       </c>
       <c r="F7" t="n">
         <v>0.2963783740997314</v>
@@ -752,7 +752,7 @@
         <v>87.58400058746338</v>
       </c>
       <c r="H7" t="n">
-        <v>3.363399744033813</v>
+        <v>4.796384572982788</v>
       </c>
       <c r="I7" t="n">
         <v>0.2963783740997314</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.130400896072388</v>
+        <v>4.125841856002808</v>
       </c>
       <c r="F8" t="n">
         <v>3.083345651626587</v>
@@ -797,7 +797,7 @@
         <v>89.19509959220886</v>
       </c>
       <c r="H8" t="n">
-        <v>4.130400896072388</v>
+        <v>4.125841856002808</v>
       </c>
       <c r="I8" t="n">
         <v>3.083345651626587</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.119261503219604</v>
+        <v>1.505285501480103</v>
       </c>
       <c r="F9" t="n">
         <v>0.1846013069152832</v>
@@ -842,7 +842,7 @@
         <v>195.5323457717896</v>
       </c>
       <c r="H9" t="n">
-        <v>1.119261503219604</v>
+        <v>1.505285501480103</v>
       </c>
       <c r="I9" t="n">
         <v>0.1846013069152832</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1755073070526123</v>
+        <v>0.3232381343841553</v>
       </c>
       <c r="F10" t="n">
         <v>0.1053314208984375</v>
@@ -887,7 +887,7 @@
         <v>36.62105464935303</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1755073070526123</v>
+        <v>0.3232381343841553</v>
       </c>
       <c r="I10" t="n">
         <v>0.1053314208984375</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2518656253814697</v>
+        <v>0.5161473751068115</v>
       </c>
       <c r="F11" t="n">
         <v>0.0917510986328125</v>
@@ -932,7 +932,7 @@
         <v>36.89364957809448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2518656253814697</v>
+        <v>0.5161473751068115</v>
       </c>
       <c r="I11" t="n">
         <v>0.0917510986328125</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2052080631256104</v>
+        <v>0.2540583610534668</v>
       </c>
       <c r="F12" t="n">
         <v>0.1011331081390381</v>
@@ -977,7 +977,7 @@
         <v>15.13570523262024</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2052080631256104</v>
+        <v>0.2540583610534668</v>
       </c>
       <c r="I12" t="n">
         <v>0.1011331081390381</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2051715850830078</v>
+        <v>0.2593739032745361</v>
       </c>
       <c r="F13" t="n">
         <v>0.1027584075927734</v>
@@ -1022,7 +1022,7 @@
         <v>15.47715091705322</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2051715850830078</v>
+        <v>0.2593739032745361</v>
       </c>
       <c r="I13" t="n">
         <v>0.1027584075927734</v>

--- a/Output/Classifier Evaluation/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
+++ b/Output/Classifier Evaluation/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
@@ -503,14 +503,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LightGBMXT</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9032907991940899</v>
+        <v>0.9026192075218268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9184692179700499</v>
+        <v>0.9201331114808652</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.344409704208374</v>
+        <v>0.1573123931884766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1253776550292969</v>
+        <v>0.03578543663024902</v>
       </c>
       <c r="G2" t="n">
-        <v>718.238401889801</v>
+        <v>177.992338180542</v>
       </c>
       <c r="H2" t="n">
-        <v>0.344409704208374</v>
+        <v>0.1573123931884766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1253776550292969</v>
+        <v>0.03578543663024902</v>
       </c>
       <c r="J2" t="n">
-        <v>718.238401889801</v>
+        <v>177.992338180542</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -542,20 +542,20 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WeightedEnsemble_L2</t>
+          <t>LightGBMXT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9032907991940899</v>
+        <v>0.9012760241773002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9184692179700499</v>
+        <v>0.9151414309484193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -563,44 +563,44 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3544647693634033</v>
+        <v>0.1508104801177979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1261296272277832</v>
+        <v>0.0308067798614502</v>
       </c>
       <c r="G3" t="n">
-        <v>718.8524346351624</v>
+        <v>147.8153111934662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0100550651550293</v>
+        <v>0.1508104801177979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007519721984863281</v>
+        <v>0.0308067798614502</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6140327453613281</v>
+        <v>147.8153111934662</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>WeightedEnsemble_L2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8985896574882472</v>
+        <v>0.8965748824714573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.913477537437604</v>
+        <v>0.930116472545757</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -608,31 +608,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3892474174499512</v>
+        <v>2.449649572372437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1073622703552246</v>
+        <v>1.058146476745605</v>
       </c>
       <c r="G4" t="n">
-        <v>826.3660137653351</v>
+        <v>609.8660891056061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3892474174499512</v>
+        <v>0.007490634918212891</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1073622703552246</v>
+        <v>0.0006232261657714844</v>
       </c>
       <c r="J4" t="n">
-        <v>826.3660137653351</v>
+        <v>0.4101099967956543</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.41332745552063</v>
+        <v>0.6742682456970215</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5190372467041016</v>
+        <v>0.1525771617889404</v>
       </c>
       <c r="G5" t="n">
-        <v>3112.256553888321</v>
+        <v>453.3133599758148</v>
       </c>
       <c r="H5" t="n">
-        <v>1.41332745552063</v>
+        <v>0.6742682456970215</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5190372467041016</v>
+        <v>0.1525771617889404</v>
       </c>
       <c r="J5" t="n">
-        <v>3112.256553888321</v>
+        <v>453.3133599758148</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -683,14 +683,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>NeuralNetFastAI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8891873740765615</v>
+        <v>0.8938885157824042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9018302828618968</v>
+        <v>0.9068219633943427</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4538910388946533</v>
+        <v>0.235302209854126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1002602577209473</v>
+        <v>0.1190011501312256</v>
       </c>
       <c r="G6" t="n">
-        <v>1812.390864849091</v>
+        <v>34.96324706077576</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4538910388946533</v>
+        <v>0.235302209854126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1002602577209473</v>
+        <v>0.1190011501312256</v>
       </c>
       <c r="J6" t="n">
-        <v>1812.390864849091</v>
+        <v>34.96324706077576</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -722,20 +722,20 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI</t>
+          <t>NeuralNetTorch</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8717259905977166</v>
+        <v>0.8865010073875084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8885191347753744</v>
+        <v>0.9151414309484193</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.796384572982788</v>
+        <v>1.376511335372925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2963783740997314</v>
+        <v>0.7427489757537842</v>
       </c>
       <c r="G7" t="n">
-        <v>87.58400058746338</v>
+        <v>144.1240999698639</v>
       </c>
       <c r="H7" t="n">
-        <v>4.796384572982788</v>
+        <v>1.376511335372925</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2963783740997314</v>
+        <v>0.7427489757537842</v>
       </c>
       <c r="J7" t="n">
-        <v>87.58400058746338</v>
+        <v>144.1240999698639</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -767,20 +767,20 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NeuralNetTorch</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8703828072531901</v>
+        <v>0.8817998656816656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8901830282861897</v>
+        <v>0.9001663893510815</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.125841856002808</v>
+        <v>0.1766471862792969</v>
       </c>
       <c r="F8" t="n">
-        <v>3.083345651626587</v>
+        <v>0.03536319732666016</v>
       </c>
       <c r="G8" t="n">
-        <v>89.19509959220886</v>
+        <v>382.6185073852539</v>
       </c>
       <c r="H8" t="n">
-        <v>4.125841856002808</v>
+        <v>0.1766471862792969</v>
       </c>
       <c r="I8" t="n">
-        <v>3.083345651626587</v>
+        <v>0.03536319732666016</v>
       </c>
       <c r="J8" t="n">
-        <v>89.19509959220886</v>
+        <v>382.6185073852539</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8663532572196104</v>
+        <v>0.8811282740094023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8951747088186356</v>
+        <v>0.9068219633943427</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.505285501480103</v>
+        <v>0.2580788135528564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1846013069152832</v>
+        <v>0.06354928016662598</v>
       </c>
       <c r="G9" t="n">
-        <v>195.5323457717896</v>
+        <v>236.0704503059387</v>
       </c>
       <c r="H9" t="n">
-        <v>1.505285501480103</v>
+        <v>0.2580788135528564</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1846013069152832</v>
+        <v>0.06354928016662598</v>
       </c>
       <c r="J9" t="n">
-        <v>195.5323457717896</v>
+        <v>236.0704503059387</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -863,14 +863,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>RandomForestGini</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8435191403626595</v>
+        <v>0.8468770987239759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8718801996672213</v>
+        <v>0.8735440931780366</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3232381343841553</v>
+        <v>0.2176642417907715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1053314208984375</v>
+        <v>0.05546069145202637</v>
       </c>
       <c r="G10" t="n">
-        <v>36.62105464935303</v>
+        <v>13.26002645492554</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3232381343841553</v>
+        <v>0.2176642417907715</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1053314208984375</v>
+        <v>0.05546069145202637</v>
       </c>
       <c r="J10" t="n">
-        <v>36.62105464935303</v>
+        <v>13.26002645492554</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -902,20 +902,20 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RandomForestGini</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8401611820013432</v>
+        <v>0.8455339153794493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8685524126455907</v>
+        <v>0.8768718801996672</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5161473751068115</v>
+        <v>0.1448984146118164</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0917510986328125</v>
+        <v>0.06803679466247559</v>
       </c>
       <c r="G11" t="n">
-        <v>36.89364957809448</v>
+        <v>12.66875720024109</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5161473751068115</v>
+        <v>0.1448984146118164</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0917510986328125</v>
+        <v>0.06803679466247559</v>
       </c>
       <c r="J11" t="n">
-        <v>36.89364957809448</v>
+        <v>12.66875720024109</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8294157152451309</v>
+        <v>0.8435191403626595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8585690515806988</v>
+        <v>0.8618968386023295</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2540583610534668</v>
+        <v>0.1972899436950684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1011331081390381</v>
+        <v>0.04097771644592285</v>
       </c>
       <c r="G12" t="n">
-        <v>15.13570523262024</v>
+        <v>3.045817136764526</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2540583610534668</v>
+        <v>0.1972899436950684</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1011331081390381</v>
+        <v>0.04097771644592285</v>
       </c>
       <c r="J12" t="n">
-        <v>15.13570523262024</v>
+        <v>3.045817136764526</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8287441235728676</v>
+        <v>0.842175957018133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8635607321131448</v>
+        <v>0.8602329450915142</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2593739032745361</v>
+        <v>0.1720924377441406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1027584075927734</v>
+        <v>0.04494476318359375</v>
       </c>
       <c r="G13" t="n">
-        <v>15.47715091705322</v>
+        <v>3.280970811843872</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2593739032745361</v>
+        <v>0.1720924377441406</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1027584075927734</v>
+        <v>0.04494476318359375</v>
       </c>
       <c r="J13" t="n">
-        <v>15.47715091705322</v>
+        <v>3.280970811843872</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
